--- a/automationframework/static/automationtestcase/app_function_case.xlsx
+++ b/automationframework/static/automationtestcase/app_function_case.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Personal/Git_Project/Pycharm_Project/automationframework/automationframework/automationserver/automationtestcase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Personal/Git_Project/Pycharm_Project/automationframework/automationframework/static/automationtestcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="700" windowWidth="26940" windowHeight="14460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1620" yWindow="1200" windowWidth="26940" windowHeight="14460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase2" sheetId="5" r:id="rId1"/>
-    <sheet name="appfuncase" sheetId="1" r:id="rId2"/>
+    <sheet name="appfuncase3" sheetId="1" r:id="rId2"/>
     <sheet name="appdeviceinfo" sheetId="4" r:id="rId3"/>
+    <sheet name="appfuncase" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -225,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Volumes/Software/Personal/Work/Apk/zssq-smsema-3180-0813.apk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等待时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,6 +393,41 @@
   </si>
   <si>
     <t>com.ushaqi.zhuishushenqi:id/dialog_custom_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换webview</t>
+    <rPh sb="0" eb="1">
+      <t>qie'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div/div[2]/div/a/div[2]/p[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/book_detail_info_search</t>
+  </si>
+  <si>
+    <t>WEBVIEW_com.ushaqi.zhuishushenqi</t>
+  </si>
+  <si>
+    <t>NATIVE_APP</t>
+  </si>
+  <si>
+    <t>/Users/steel/Downloads/zssq-Activity-3200-1015.apk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Webview路径</t>
+    <rPh sb="7" eb="8">
+      <t>lu'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/lib/node_modules/appium-chromedriver/chromedriver/mac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -1158,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1175,7 +1207,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1189,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1209,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1226,7 +1258,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1240,13 +1272,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1259,14 +1291,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1">
         <v>66</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
@@ -1297,7 +1329,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1311,10 +1343,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1331,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1345,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1363,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1380,7 +1412,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1397,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1414,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>15</v>
@@ -1425,13 +1457,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1442,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>15</v>
@@ -1453,7 +1485,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>15</v>
@@ -1467,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>15</v>
@@ -1478,13 +1510,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>15</v>
@@ -1495,18 +1527,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1520,7 +1556,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1564,7 @@
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="47.6640625" customWidth="1"/>
     <col min="3" max="3" width="62.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
   </cols>
@@ -1543,6 +1579,9 @@
       <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1552,7 +1591,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1679,4 +1721,129 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/automationframework/static/automationtestcase/app_function_case.xlsx
+++ b/automationframework/static/automationtestcase/app_function_case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Personal/Git_Project/Pycharm_Project/automationframework/automationframework/static/automationtestcase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Datas/Projects/Git_Project/Pycharm_Project/automationframework/automationframework/static/automationtestcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1200" windowWidth="26940" windowHeight="14460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="55100" yWindow="6640" windowWidth="34500" windowHeight="16820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase2" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -39,9 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.ushaqi.zhuishushenqi</t>
-  </si>
-  <si>
     <t>测试App包名</t>
     <rPh sb="0" eb="1">
       <t>ce's</t>
@@ -57,9 +54,6 @@
       <t>ce's</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
   </si>
   <si>
     <t>操作类型</t>
@@ -396,30 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>切换webview</t>
-    <rPh sb="0" eb="1">
-      <t>qie'huan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="root"]/div/div[2]/div/a/div[2]/p[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi:id/book_detail_info_search</t>
-  </si>
-  <si>
-    <t>WEBVIEW_com.ushaqi.zhuishushenqi</t>
-  </si>
-  <si>
-    <t>NATIVE_APP</t>
-  </si>
-  <si>
-    <t>/Users/steel/Downloads/zssq-Activity-3200-1015.apk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Webview路径</t>
     <rPh sb="7" eb="8">
       <t>lu'j</t>
@@ -427,7 +397,137 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/usr/local/lib/node_modules/appium-chromedriver/chromedriver/mac</t>
+    <t>com.ushaqi.zhuishushenqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <rPh sb="0" eb="1">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>fou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否清空数据</t>
+    <rPh sb="0" eb="1">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Volumes/Software/Datas/Projects/Work_Project/APK/com.ushaqi.zhuishushenqi_4.22_4022122.apk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldm5332#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_包含id</t>
+    <rPh sb="3" eb="4">
+      <t>bao'han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout/android.widget.RelativeLayout[5]/android.widget.LinearLayout[1]/android.widget.ImageView[1]</t>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <rPh sb="0" eb="1">
+      <t>deng'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>s'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/start_read_book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/iv_sina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/loginName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/loginPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/loginAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/activity_intro_cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/activity_intro_cancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +535,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,6 +573,11 @@
       <sz val="9.8000000000000007"/>
       <color rgb="FF000000"/>
       <name val="Monaco"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -515,7 +620,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,6 +633,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -848,25 +956,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -874,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -884,7 +992,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -892,10 +1000,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -904,7 +1012,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -912,10 +1020,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -924,7 +1032,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -932,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -940,7 +1048,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -948,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -960,7 +1068,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -968,17 +1076,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -986,10 +1094,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -998,7 +1106,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1006,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1014,7 +1122,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1022,10 +1130,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1034,7 +1142,7 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1042,10 +1150,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1054,7 +1162,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1062,10 +1170,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1073,10 +1181,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1085,7 +1193,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1093,10 +1201,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1105,7 +1213,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1113,10 +1221,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +1238,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,22 +1255,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1170,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -1179,7 +1287,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1187,16 +1295,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1204,16 +1312,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1221,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1230,7 +1338,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1238,16 +1346,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1255,16 +1363,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1272,18 +1380,18 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1291,17 +1399,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1">
         <v>66</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1309,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1318,7 +1426,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1326,16 +1434,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1343,16 +1451,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1360,16 +1468,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1377,14 +1485,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1392,16 +1500,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1409,16 +1517,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1426,16 +1534,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1443,13 +1551,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1457,13 +1565,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1471,13 +1579,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1485,10 +1593,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1496,13 +1604,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1510,16 +1618,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1527,17 +1635,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1553,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1564,157 +1672,197 @@
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="47.6640625" customWidth="1"/>
     <col min="3" max="3" width="62.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="43.5" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="4" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="43.5" customWidth="1"/>
+    <col min="8" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1725,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1737,6 +1885,9 @@
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="54.5" customWidth="1"/>
     <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1744,103 +1895,215 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1">
+        <v>17721292302</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/automationframework/static/automationtestcase/app_function_case.xlsx
+++ b/automationframework/static/automationtestcase/app_function_case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Datas/Projects/Git_Project/Pycharm_Project/automationframework/automationframework/static/automationtestcase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Personal/Git_Project/Pycharm_Project/automationframework/automationframework/static/automationtestcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="55100" yWindow="6640" windowWidth="34500" windowHeight="16820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2960" yWindow="3360" windowWidth="34500" windowHeight="16820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase2" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -511,23 +511,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.ushaqi.zhuishushenqi:id/loginName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi:id/loginPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi:id/loginAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com.ushaqi.zhuishushenqi:id/activity_intro_cancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>com.ushaqi.zhuishushenqi:id/activity_intro_cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginPassword</t>
+  </si>
+  <si>
+    <t>loginAction</t>
+  </si>
+  <si>
+    <t>先点击一下控件</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kong'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_id</t>
+  </si>
+  <si>
+    <t>loginName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果存在就执行，不存在不执行</t>
+    <rPh sb="0" eb="1">
+      <t>ru'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cun'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'x</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu'cun'z</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi'x</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +623,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Menlo"/>
+      <name val="Devanagari Sangam MN"/>
     </font>
   </fonts>
   <fills count="2">
@@ -620,7 +666,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,6 +683,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1664,7 +1713,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1873,20 +1922,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.5" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="37.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1915,7 +1964,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>75</v>
@@ -1932,7 +1981,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1949,7 +1998,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1964,74 +2013,79 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="1">
-        <v>17721292302</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" t="s">
+        <v>83</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="D7" s="7">
+        <v>17721292302</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>82</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2040,13 +2094,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>69</v>
@@ -2054,35 +2108,60 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G15" s="1"/>
@@ -2104,6 +2183,12 @@
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/automationframework/static/automationtestcase/app_function_case.xlsx
+++ b/automationframework/static/automationtestcase/app_function_case.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Personal/Git_Project/Pycharm_Project/automationframework/automationframework/static/automationtestcase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Datas/Projects/Git_Project/Pycharm_Project/automationframework/automationframework/static/automationtestcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="3360" windowWidth="34500" windowHeight="16820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="11260" yWindow="3940" windowWidth="34500" windowHeight="16820" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase2" sheetId="5" r:id="rId1"/>
     <sheet name="appfuncase3" sheetId="1" r:id="rId2"/>
     <sheet name="appdeviceinfo" sheetId="4" r:id="rId3"/>
-    <sheet name="appfuncase" sheetId="6" r:id="rId4"/>
+    <sheet name="appfuncase4" sheetId="6" r:id="rId4"/>
+    <sheet name="appfuncase" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="91">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -575,6 +576,16 @@
       <t>zhi'x</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='关闭']</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/iv_sina</t>
   </si>
 </sst>
 </file>
@@ -1924,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2194,4 +2205,212 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/automationframework/static/automationtestcase/app_function_case.xlsx
+++ b/automationframework/static/automationtestcase/app_function_case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="3360" windowWidth="34500" windowHeight="16820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1060" yWindow="1660" windowWidth="33600" windowHeight="16820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase2" sheetId="5" r:id="rId1"/>
@@ -1925,7 +1925,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C16" activeCellId="1" sqref="D13 C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/automationframework/static/automationtestcase/app_function_case.xlsx
+++ b/automationframework/static/automationtestcase/app_function_case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1660" windowWidth="33600" windowHeight="16820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1660" windowWidth="33600" windowHeight="16820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase2" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="87">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -457,38 +457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldm5332#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待时间</t>
-    <rPh sb="0" eb="1">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if_包含id</t>
-    <rPh sb="3" eb="4">
-      <t>bao'han</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.LinearLayout/android.widget.RelativeLayout[5]/android.widget.LinearLayout[1]/android.widget.ImageView[1]</t>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等待时间</t>
     <rPh sb="0" eb="1">
       <t>deng'd</t>
@@ -507,74 +475,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.ushaqi.zhuishushenqi:id/iv_sina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi:id/activity_intro_cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi:id/activity_intro_cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginPassword</t>
-  </si>
-  <si>
-    <t>loginAction</t>
-  </si>
-  <si>
-    <t>先点击一下控件</t>
-    <rPh sb="0" eb="1">
-      <t>xian</t>
+    <t>com.ushaqi.zhuishushenqi:id/bt_user_bind_phone</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/tv_bind_skip</t>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='我的']</t>
+  </si>
+  <si>
+    <t>if包含_xpath</t>
+    <rPh sb="2" eb="3">
+      <t>bao'han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.FrameLayout[1]/android.widget.RelativeLayout[1]/android.widget.ImageView[1]</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/tx_account</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/setting_normal</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/bt_user_logout</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/tx_login</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/bt_login_user_change</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/iv_weixin</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上滑动</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'xia</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>dian'ji</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yi'xia</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>kong'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入_id</t>
-  </si>
-  <si>
-    <t>loginName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果存在就执行，不存在不执行</t>
-    <rPh sb="0" eb="1">
-      <t>ru'g</t>
+      <t>shang</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>cun'z</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhi'x</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bu'cun'z</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhi'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>hua'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnOk</t>
   </si>
 </sst>
 </file>
@@ -1922,17 +1881,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" activeCellId="1" sqref="D13 C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="37.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
@@ -1967,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -1976,7 +1935,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1987,13 +1946,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2004,11 +1963,11 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2016,14 +1975,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2031,17 +1990,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -2049,16 +2005,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="7">
-        <v>17721292302</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -2066,16 +2020,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -2083,13 +2033,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2097,13 +2047,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2111,16 +2061,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2131,10 +2078,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2142,11 +2089,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2154,41 +2101,201 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G23" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/automationframework/static/automationtestcase/app_function_case.xlsx
+++ b/automationframework/static/automationtestcase/app_function_case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Personal/Git_Project/Pycharm_Project/automationframework/automationframework/static/automationtestcase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Datas/Projects/Git_Project/Pycharm_Project/automationframework/automationframework/static/automationtestcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1660" windowWidth="33600" windowHeight="16820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="6440" yWindow="9920" windowWidth="37420" windowHeight="16820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase2" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="91">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -426,13 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <rPh sb="0" eb="1">
-      <t>sh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否清空数据</t>
     <rPh sb="0" eb="1">
       <t>shi'f</t>
@@ -446,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Volumes/Software/Datas/Projects/Work_Project/APK/com.ushaqi.zhuishushenqi_4.22_4022122.apk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <rPh sb="0" eb="1">
       <t>shi</t>
@@ -483,9 +472,6 @@
   <si>
     <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='我的']</t>
   </si>
   <si>
     <t>if包含_xpath</t>
@@ -534,6 +520,40 @@
   </si>
   <si>
     <t>btnOk</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/iv_qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id='com.tencent.mobileqq:id/name']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/bt_user_bind_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/tv_bind_skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='我的']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Volumes/Software/Datas/Projects/Work_Project/APK/com.ushaqi.zhuishushenqi_4.22_4022.apk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if包含_元素</t>
+    <rPh sb="2" eb="3">
+      <t>bao'han</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1672,7 +1692,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1699,7 +1719,7 @@
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>62</v>
@@ -1713,10 +1733,13 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1730,10 +1753,10 @@
         <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1881,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1926,16 +1949,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1946,13 +1969,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1963,11 +1986,11 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1978,11 +2001,11 @@
         <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1990,14 +2013,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -2008,11 +2031,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D7" s="7"/>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -2020,12 +2043,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -2039,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2050,10 +2073,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2061,13 +2084,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2078,10 +2101,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2093,7 +2116,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2104,10 +2127,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2115,10 +2138,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2129,10 +2152,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2143,10 +2166,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2157,10 +2180,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2171,10 +2194,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2182,13 +2205,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2196,27 +2219,24 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2224,10 +2244,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -2235,13 +2258,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="6">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2249,24 +2272,24 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>10</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2277,10 +2300,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2288,13 +2311,38 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C30" s="5">
         <v>5</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>84</v>
+      <c r="G30" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
